--- a/data/file/02-入职批量查询.xlsx
+++ b/data/file/02-入职批量查询.xlsx
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F23"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
